--- a/public/excel/jubeerich.xlsx
+++ b/public/excel/jubeerich.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571894C-F421-5B49-A14E-87F846660055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Sl.no</t>
   </si>
@@ -49,12 +58,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>SOURCE_1</t>
-  </si>
-  <si>
-    <t>CHANNEL_1</t>
-  </si>
-  <si>
     <t>afsal</t>
   </si>
   <si>
@@ -64,52 +67,106 @@
     <t>Kochi</t>
   </si>
   <si>
-    <t>OFFICE_1</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>SOURCE_2</t>
-  </si>
-  <si>
-    <t>CHANNEL</t>
-  </si>
-  <si>
     <t>akshay</t>
   </si>
   <si>
-    <t>OFFICE_2</t>
-  </si>
-  <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>DIRECT</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>DIRECT_ENQUIRY</t>
+  </si>
+  <si>
+    <t>BRANCH</t>
+  </si>
+  <si>
+    <t>CORPORATE_OFFICE</t>
+  </si>
+  <si>
+    <t>LEAD SOURCE</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>LEAD CHANNELS</t>
+  </si>
+  <si>
+    <t>WHATSAPP</t>
+  </si>
+  <si>
+    <t>OFFICE TYPES</t>
+  </si>
+  <si>
+    <t>FRANCHISE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -117,7 +174,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -127,31 +184,12 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -160,75 +198,108 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -418,24 +489,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="23.13"/>
-    <col customWidth="1" min="9" max="9" width="19.63"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,139 +550,191 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>45971.0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>45971</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5">
+        <v>6789876543</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5">
-        <v>6.789876543E9</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="N2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45971</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6789076543</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45971.0</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="N4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5">
-        <v>6.789076543E9</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="K3" s="7" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N15" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/excel/jubeerich.xlsx
+++ b/public/excel/jubeerich.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Projects/jubeerich_admin/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571894C-F421-5B49-A14E-87F846660055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFAB45-B381-814A-82AF-C5C036606981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Sl.no</t>
   </si>
@@ -97,22 +97,7 @@
     <t>CORPORATE_OFFICE</t>
   </si>
   <si>
-    <t>LEAD SOURCE</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>LEAD CHANNELS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>OFFICE TYPES</t>
-  </si>
-  <si>
-    <t>FRANCHISE</t>
+    <t>akshay@intersmart.in</t>
   </si>
 </sst>
 </file>
@@ -134,11 +119,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -256,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,8 +266,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,12 +490,13 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="14" max="14" width="36.33203125" customWidth="1"/>
   </cols>
@@ -587,13 +576,11 @@
       <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>45971</v>
@@ -607,8 +594,8 @@
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="5">
         <v>6789076543</v>
@@ -628,9 +615,7 @@
       <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -645,9 +630,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="N4" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
@@ -662,9 +645,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="N5" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
@@ -695,44 +676,28 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N8" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N9" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N10" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N11" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="N11" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N13" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N15" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N16" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="N16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
